--- a/OtAoFPA Program Data.xlsx
+++ b/OtAoFPA Program Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rishi\Documents\Python\OtAoFPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FB8DE0-33FD-4DF0-AF59-98CA54672B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F039CC10-91AE-48DD-838C-63B1289AC83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B82B5DA4-62A4-4ADF-8494-925F1F855B7B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>m_val</t>
   </si>
@@ -44,8 +44,18 @@
     <t>P_val</t>
   </si>
   <si>
+    <t>∆t_val_2</t>
+  </si>
+  <si>
+    <t>∆t_val_3</t>
+  </si>
+  <si>
+    <t>∆t_val_avg</t>
+  </si>
+  <si>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
@@ -55,21 +65,40 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>t_val</t>
+      <t>t_val_1</t>
     </r>
+  </si>
+  <si>
+    <t>events_tot</t>
+  </si>
+  <si>
+    <t>events_non_assoc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="10">
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000000000"/>
+    <numFmt numFmtId="168" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="169" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="170" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="171" formatCode="0.0000000000000000"/>
+    <numFmt numFmtId="172" formatCode="0.00000000000000000"/>
+    <numFmt numFmtId="178" formatCode="0.0000000000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +107,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -92,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -100,13 +138,319 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -124,6 +468,3264 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>events_tot against m_val</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>events_tot against m</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>294912</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52428800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>603979776</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6576668672</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7711-4544-BFD1-A565959E2FC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="599935960"/>
+        <c:axId val="599936680"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="599935960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>m_val</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599936680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="599936680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>events_tot</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599935960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>P_val against m_val</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="0.0000000">
+                  <c:v>0.4296875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50390625</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000000000000000">
+                  <c:v>0.55914984809027701</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.000000000000000">
+                  <c:v>0.59364795684814398</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00000000000000">
+                  <c:v>0.61715705871582005</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.000000000000000">
+                  <c:v>0.634345908959706</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.000000000000000">
+                  <c:v>0.64754875399628398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B25D-45CB-88F7-CE181177DC2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="417905560"/>
+        <c:axId val="417902680"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="417905560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>m_val</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="417902680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="417902680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>P_val</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="417905560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>∆t_val_avg against m_val</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>∆t_val_avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000000000000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="0.00000000000000000">
+                  <c:v>1.0481675465901636E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4365434646606398E-2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000000000000000">
+                  <c:v>0.25243751207987403</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00000000000000">
+                  <c:v>3.5716193517049102</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.0000000000000">
+                  <c:v>45.096443414688075</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00000000000">
+                  <c:v>568.20172047614994</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00000000000">
+                  <c:v>6221.8755907217637</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA36-436A-9C3B-2335686550BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="600700784"/>
+        <c:axId val="602576080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="600700784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>m_val</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="602576080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="602576080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>∆t_val_avg</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00000000000000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="600700784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF993671-9D63-D0D4-3BB6-C9F00866E11B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A88AFBE4-432E-830E-FEFB-82B0E92F699D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1600199</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{801C2B59-85DB-77FE-98B6-ED68A32C654F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -443,69 +4045,256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDC94D5-E8E0-480C-903D-03926A1CC3FA}">
-  <dimension ref="B2:D10"/>
+  <dimension ref="B1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>2</v>
       </c>
+      <c r="H2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="10">
         <v>3</v>
       </c>
+      <c r="C3" s="22">
+        <v>512</v>
+      </c>
+      <c r="D3" s="22">
+        <v>220</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0.4296875</v>
+      </c>
+      <c r="F3" s="12">
+        <v>1.06310844421386E-3</v>
+      </c>
+      <c r="G3" s="12">
+        <v>1.01065635681152E-3</v>
+      </c>
+      <c r="H3" s="12">
+        <v>1.07073783874511E-3</v>
+      </c>
+      <c r="I3" s="13">
+        <f>(F3+G3+H3)/3</f>
+        <v>1.0481675465901636E-3</v>
+      </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="14">
         <v>4</v>
       </c>
+      <c r="C4" s="23">
+        <v>16384</v>
+      </c>
+      <c r="D4" s="23">
+        <v>8256</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0.50390625</v>
+      </c>
+      <c r="F4" s="16">
+        <v>1.50215625762939E-2</v>
+      </c>
+      <c r="G4" s="16">
+        <v>1.39110088348388E-2</v>
+      </c>
+      <c r="H4" s="16">
+        <v>1.4163732528686499E-2</v>
+      </c>
+      <c r="I4" s="18">
+        <f t="shared" ref="I4:I10" si="0">(F4+G4+H4)/3</f>
+        <v>1.4365434646606398E-2</v>
+      </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="14">
         <v>5</v>
       </c>
+      <c r="C5" s="23">
+        <v>294912</v>
+      </c>
+      <c r="D5" s="23">
+        <v>164900</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0.55914984809027701</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0.25121331214904702</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0.25249028205871499</v>
+      </c>
+      <c r="H5" s="20">
+        <v>0.25360894203186002</v>
+      </c>
+      <c r="I5" s="19">
+        <f t="shared" si="0"/>
+        <v>0.25243751207987403</v>
+      </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="14">
         <v>6</v>
       </c>
+      <c r="C6" s="23">
+        <v>4194304</v>
+      </c>
+      <c r="D6" s="23">
+        <v>2489940</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.59364795684814398</v>
+      </c>
+      <c r="F6" s="20">
+        <v>3.5567932128906201</v>
+      </c>
+      <c r="G6" s="26">
+        <v>3.5879042148589999</v>
+      </c>
+      <c r="H6" s="20">
+        <v>3.5701606273651101</v>
+      </c>
+      <c r="I6" s="29">
+        <f t="shared" si="0"/>
+        <v>3.5716193517049102</v>
+      </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="14">
         <v>7</v>
       </c>
+      <c r="C7" s="23">
+        <v>52428800</v>
+      </c>
+      <c r="D7" s="23">
+        <v>32356804</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0.61715705871582005</v>
+      </c>
+      <c r="F7" s="27">
+        <v>44.305991172790499</v>
+      </c>
+      <c r="G7" s="27">
+        <v>45.824229717254603</v>
+      </c>
+      <c r="H7" s="27">
+        <v>45.159109354019101</v>
+      </c>
+      <c r="I7" s="30">
+        <f t="shared" si="0"/>
+        <v>45.096443414688075</v>
+      </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="14">
         <v>8</v>
       </c>
+      <c r="C8" s="23">
+        <v>603979776</v>
+      </c>
+      <c r="D8" s="23">
+        <v>383132100</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.634345908959706</v>
+      </c>
+      <c r="F8" s="26">
+        <v>568.42039251327503</v>
+      </c>
+      <c r="G8" s="26">
+        <v>571.78876757621697</v>
+      </c>
+      <c r="H8" s="26">
+        <v>564.39600133895794</v>
+      </c>
+      <c r="I8" s="31">
+        <f t="shared" si="0"/>
+        <v>568.20172047614994</v>
+      </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="14">
         <v>9</v>
       </c>
+      <c r="C9" s="23">
+        <v>6576668672</v>
+      </c>
+      <c r="D9" s="23">
+        <v>4258713604</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0.64754875399628398</v>
+      </c>
+      <c r="F9" s="25">
+        <v>6204.3940157890302</v>
+      </c>
+      <c r="G9" s="28">
+        <v>6226.9129178523999</v>
+      </c>
+      <c r="H9" s="25">
+        <v>6234.3198385238602</v>
+      </c>
+      <c r="I9" s="31">
+        <f t="shared" si="0"/>
+        <v>6221.8755907217637</v>
+      </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
+    <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
         <v>10</v>
       </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
+    <row r="11" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/OtAoFPA Program Data.xlsx
+++ b/OtAoFPA Program Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rishi\Documents\Python\OtAoFPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F039CC10-91AE-48DD-838C-63B1289AC83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B701C135-B11E-48DC-8610-C83A238DA8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B82B5DA4-62A4-4ADF-8494-925F1F855B7B}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
     <numFmt numFmtId="166" formatCode="0.00000000000"/>
@@ -96,7 +96,8 @@
     <numFmt numFmtId="170" formatCode="0.000000000000000"/>
     <numFmt numFmtId="171" formatCode="0.0000000000000000"/>
     <numFmt numFmtId="172" formatCode="0.00000000000000000"/>
-    <numFmt numFmtId="178" formatCode="0.0000000000"/>
+    <numFmt numFmtId="173" formatCode="0.0000000000"/>
+    <numFmt numFmtId="174" formatCode="0.000000000000000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -358,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -394,9 +395,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -441,7 +439,7 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -451,6 +449,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -573,6 +580,50 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="#,##0.000000000000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$B$3:$B$9</c:f>
@@ -613,22 +664,19 @@
                   <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16384</c:v>
+                  <c:v>12288</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>294912</c:v>
+                  <c:v>196608</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4194304</c:v>
+                  <c:v>2621440</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52428800</c:v>
+                  <c:v>31457280</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>603979776</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6576668672</c:v>
+                  <c:v>352321536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -641,7 +689,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1054,22 +1101,19 @@
                   <c:v>0.4296875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.50390625</c:v>
+                  <c:v>0.423828125</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.000000000000000">
-                  <c:v>0.55914984809027701</c:v>
+                  <c:v>0.42228190104166602</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0.000000000000000">
-                  <c:v>0.59364795684814398</c:v>
+                <c:pt idx="3" formatCode="0.00000000000000">
+                  <c:v>0.42391357421874998</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0.00000000000000">
-                  <c:v>0.61715705871582005</c:v>
+                <c:pt idx="4" formatCode="0.000000000000000">
+                  <c:v>0.42726440429687501</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.000000000000000">
-                  <c:v>0.634345908959706</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.000000000000000">
-                  <c:v>0.64754875399628398</c:v>
+                  <c:v>0.431336539132254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1082,7 +1126,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1517,9 +1560,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$B$3:$B$9</c:f>
@@ -1556,26 +1596,26 @@
               <c:numCache>
                 <c:formatCode>0.0000000000000000</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0" formatCode="0.00000000000000000">
-                  <c:v>1.0481675465901636E-3</c:v>
+                <c:pt idx="0" formatCode="0.000000000000000000">
+                  <c:v>8.8342030843098669E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4365434646606398E-2</c:v>
+                  <c:v>1.11456712086995E-2</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.000000000000000">
-                  <c:v>0.25243751207987403</c:v>
+                  <c:v>0.16654833157857232</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.00000000000000">
-                  <c:v>3.5716193517049102</c:v>
+                  <c:v>2.3161095778147298</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.0000000000000">
-                  <c:v>45.096443414688075</c:v>
+                  <c:v>26.510492881139069</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0.00000000000">
-                  <c:v>568.20172047614994</c:v>
+                <c:pt idx="5" formatCode="0.000000000000">
+                  <c:v>331.76863423983201</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00000000000">
-                  <c:v>6221.8755907217637</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1854,7 +1894,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00000000000000000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000000000000000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4047,8 +4087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDC94D5-E8E0-480C-903D-03926A1CC3FA}">
   <dimension ref="B1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="121" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4066,10 +4106,10 @@
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -4092,197 +4132,185 @@
       <c r="B3" s="10">
         <v>3</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="21">
         <v>512</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="21">
         <v>220</v>
       </c>
       <c r="E3" s="11">
         <v>0.4296875</v>
       </c>
       <c r="F3" s="12">
-        <v>1.06310844421386E-3</v>
-      </c>
-      <c r="G3" s="12">
-        <v>1.01065635681152E-3</v>
-      </c>
-      <c r="H3" s="12">
-        <v>1.07073783874511E-3</v>
-      </c>
-      <c r="I3" s="13">
+        <v>1.6307830810546799E-3</v>
+      </c>
+      <c r="G3" s="31">
+        <v>5.07116317749023E-4</v>
+      </c>
+      <c r="H3" s="31">
+        <v>5.1236152648925705E-4</v>
+      </c>
+      <c r="I3" s="32">
         <f>(F3+G3+H3)/3</f>
-        <v>1.0481675465901636E-3</v>
+        <v>8.8342030843098669E-4</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>4</v>
       </c>
-      <c r="C4" s="23">
-        <v>16384</v>
-      </c>
-      <c r="D4" s="23">
-        <v>8256</v>
-      </c>
-      <c r="E4" s="15">
-        <v>0.50390625</v>
-      </c>
-      <c r="F4" s="16">
-        <v>1.50215625762939E-2</v>
-      </c>
-      <c r="G4" s="16">
-        <v>1.39110088348388E-2</v>
-      </c>
-      <c r="H4" s="16">
-        <v>1.4163732528686499E-2</v>
-      </c>
-      <c r="I4" s="18">
+      <c r="C4" s="22">
+        <v>12288</v>
+      </c>
+      <c r="D4" s="22">
+        <v>5208</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0.423828125</v>
+      </c>
+      <c r="F4" s="15">
+        <v>1.16541385650634E-2</v>
+      </c>
+      <c r="G4" s="15">
+        <v>1.11699104309082E-2</v>
+      </c>
+      <c r="H4" s="15">
+        <v>1.0612964630126899E-2</v>
+      </c>
+      <c r="I4" s="17">
         <f t="shared" ref="I4:I10" si="0">(F4+G4+H4)/3</f>
-        <v>1.4365434646606398E-2</v>
+        <v>1.11456712086995E-2</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>5</v>
       </c>
-      <c r="C5" s="23">
-        <v>294912</v>
-      </c>
-      <c r="D5" s="23">
-        <v>164900</v>
-      </c>
-      <c r="E5" s="17">
-        <v>0.55914984809027701</v>
-      </c>
-      <c r="F5" s="17">
-        <v>0.25121331214904702</v>
-      </c>
-      <c r="G5" s="17">
-        <v>0.25249028205871499</v>
-      </c>
-      <c r="H5" s="20">
-        <v>0.25360894203186002</v>
-      </c>
-      <c r="I5" s="19">
+      <c r="C5" s="22">
+        <v>196608</v>
+      </c>
+      <c r="D5" s="22">
+        <v>83024</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0.42228190104166602</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0.16847181320190399</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0.16394782066345201</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0.167225360870361</v>
+      </c>
+      <c r="I5" s="18">
         <f t="shared" si="0"/>
-        <v>0.25243751207987403</v>
+        <v>0.16654833157857232</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>6</v>
       </c>
-      <c r="C6" s="23">
-        <v>4194304</v>
-      </c>
-      <c r="D6" s="23">
-        <v>2489940</v>
-      </c>
-      <c r="E6" s="17">
-        <v>0.59364795684814398</v>
-      </c>
-      <c r="F6" s="20">
-        <v>3.5567932128906201</v>
-      </c>
-      <c r="G6" s="26">
-        <v>3.5879042148589999</v>
-      </c>
-      <c r="H6" s="20">
-        <v>3.5701606273651101</v>
-      </c>
-      <c r="I6" s="29">
+      <c r="C6" s="22">
+        <v>2621440</v>
+      </c>
+      <c r="D6" s="22">
+        <v>1111264</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0.42391357421874998</v>
+      </c>
+      <c r="F6" s="19">
+        <v>2.2640810012817298</v>
+      </c>
+      <c r="G6" s="19">
+        <v>2.32328748703002</v>
+      </c>
+      <c r="H6" s="19">
+        <v>2.3609602451324401</v>
+      </c>
+      <c r="I6" s="28">
         <f t="shared" si="0"/>
-        <v>3.5716193517049102</v>
+        <v>2.3161095778147298</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>7</v>
       </c>
-      <c r="C7" s="23">
-        <v>52428800</v>
-      </c>
-      <c r="D7" s="23">
-        <v>32356804</v>
-      </c>
-      <c r="E7" s="20">
-        <v>0.61715705871582005</v>
-      </c>
-      <c r="F7" s="27">
-        <v>44.305991172790499</v>
-      </c>
-      <c r="G7" s="27">
-        <v>45.824229717254603</v>
-      </c>
-      <c r="H7" s="27">
-        <v>45.159109354019101</v>
-      </c>
-      <c r="I7" s="30">
+      <c r="C7" s="22">
+        <v>31457280</v>
+      </c>
+      <c r="D7" s="22">
+        <v>13440576</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0.42726440429687501</v>
+      </c>
+      <c r="F7" s="26">
+        <v>26.398905515670702</v>
+      </c>
+      <c r="G7" s="26">
+        <v>26.694002389907801</v>
+      </c>
+      <c r="H7" s="26">
+        <v>26.438570737838699</v>
+      </c>
+      <c r="I7" s="29">
         <f t="shared" si="0"/>
-        <v>45.096443414688075</v>
+        <v>26.510492881139069</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>8</v>
       </c>
-      <c r="C8" s="23">
-        <v>603979776</v>
-      </c>
-      <c r="D8" s="23">
-        <v>383132100</v>
-      </c>
-      <c r="E8" s="17">
-        <v>0.634345908959706</v>
-      </c>
-      <c r="F8" s="26">
-        <v>568.42039251327503</v>
-      </c>
-      <c r="G8" s="26">
-        <v>571.78876757621697</v>
-      </c>
-      <c r="H8" s="26">
-        <v>564.39600133895794</v>
-      </c>
-      <c r="I8" s="31">
+      <c r="C8" s="22">
+        <v>352321536</v>
+      </c>
+      <c r="D8" s="22">
+        <v>151969152</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0.431336539132254</v>
+      </c>
+      <c r="F8" s="25">
+        <v>329.74270033836302</v>
+      </c>
+      <c r="G8" s="24">
+        <v>332.94395828247002</v>
+      </c>
+      <c r="H8" s="25">
+        <v>332.61924409866299</v>
+      </c>
+      <c r="I8" s="33">
         <f t="shared" si="0"/>
-        <v>568.20172047614994</v>
+        <v>331.76863423983201</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>9</v>
       </c>
-      <c r="C9" s="23">
-        <v>6576668672</v>
-      </c>
-      <c r="D9" s="23">
-        <v>4258713604</v>
-      </c>
-      <c r="E9" s="17">
-        <v>0.64754875399628398</v>
-      </c>
-      <c r="F9" s="25">
-        <v>6204.3940157890302</v>
-      </c>
-      <c r="G9" s="28">
-        <v>6226.9129178523999</v>
-      </c>
-      <c r="H9" s="25">
-        <v>6234.3198385238602</v>
-      </c>
-      <c r="I9" s="31">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="30">
         <f t="shared" si="0"/>
-        <v>6221.8755907217637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>10</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>

--- a/OtAoFPA Program Data.xlsx
+++ b/OtAoFPA Program Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rishi\Documents\Python\OtAoFPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B701C135-B11E-48DC-8610-C83A238DA8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC67914-F02A-49B9-B0A1-A0E4DBBAFF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B82B5DA4-62A4-4ADF-8494-925F1F855B7B}"/>
   </bookViews>
@@ -4087,8 +4087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDC94D5-E8E0-480C-903D-03926A1CC3FA}">
   <dimension ref="B1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="121" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
